--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H2">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I2">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J2">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.4608066666666666</v>
+        <v>0.283883</v>
       </c>
       <c r="N2">
-        <v>1.38242</v>
+        <v>0.567766</v>
       </c>
       <c r="O2">
-        <v>0.3929590734668487</v>
+        <v>0.3042626654641195</v>
       </c>
       <c r="P2">
-        <v>0.401944447917342</v>
+        <v>0.2330221807060198</v>
       </c>
       <c r="Q2">
-        <v>92.21253217964666</v>
+        <v>67.01974674488901</v>
       </c>
       <c r="R2">
-        <v>553.27519307788</v>
+        <v>268.078986979556</v>
       </c>
       <c r="S2">
-        <v>0.08859145030222089</v>
+        <v>0.1083309499360235</v>
       </c>
       <c r="T2">
-        <v>0.07305644228442547</v>
+        <v>0.06811364652629184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H3">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I3">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J3">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2151783333333333</v>
+        <v>0.4608066666666666</v>
       </c>
       <c r="N3">
-        <v>0.645535</v>
+        <v>1.38242</v>
       </c>
       <c r="O3">
-        <v>0.1834962135171816</v>
+        <v>0.4938874982427127</v>
       </c>
       <c r="P3">
-        <v>0.1876920249897436</v>
+        <v>0.5673719860851406</v>
       </c>
       <c r="Q3">
-        <v>43.05957448574834</v>
+        <v>108.7882898882867</v>
       </c>
       <c r="R3">
-        <v>258.35744691449</v>
+        <v>652.72973932972</v>
       </c>
       <c r="S3">
-        <v>0.04136867368154697</v>
+        <v>0.1758457672240062</v>
       </c>
       <c r="T3">
-        <v>0.03411444457551005</v>
+        <v>0.1658459069949176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H4">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I4">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J4">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07864349999999999</v>
+        <v>0.09609166666666667</v>
       </c>
       <c r="N4">
-        <v>0.157287</v>
+        <v>0.288275</v>
       </c>
       <c r="O4">
-        <v>0.06706430077875779</v>
+        <v>0.1029899875261628</v>
       </c>
       <c r="P4">
-        <v>0.04573185889930338</v>
+        <v>0.1183136523550686</v>
       </c>
       <c r="Q4">
-        <v>15.7374378433545</v>
+        <v>22.68554004394167</v>
       </c>
       <c r="R4">
-        <v>62.949751373418</v>
+        <v>136.11324026365</v>
       </c>
       <c r="S4">
-        <v>0.01511944645297965</v>
+        <v>0.03666898521903647</v>
       </c>
       <c r="T4">
-        <v>0.008312111107760615</v>
+        <v>0.03458372190720611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H5">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I5">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J5">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1607953333333333</v>
+        <v>0.07864350000000001</v>
       </c>
       <c r="N5">
-        <v>0.482386</v>
+        <v>0.157287</v>
       </c>
       <c r="O5">
-        <v>0.1371203799231632</v>
+        <v>0.08428923511244943</v>
       </c>
       <c r="P5">
-        <v>0.1402557648565957</v>
+        <v>0.06455363606962683</v>
       </c>
       <c r="Q5">
-        <v>32.17693215376733</v>
+        <v>18.5663370231105</v>
       </c>
       <c r="R5">
-        <v>193.061592922604</v>
+        <v>74.26534809244201</v>
       </c>
       <c r="S5">
-        <v>0.03091338040934529</v>
+        <v>0.03001069124003082</v>
       </c>
       <c r="T5">
-        <v>0.02549254565748099</v>
+        <v>0.0188693777386826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H6">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I6">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J6">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2572343333333333</v>
+        <v>0.01359466666666667</v>
       </c>
       <c r="N6">
-        <v>0.771703</v>
+        <v>0.040784</v>
       </c>
       <c r="O6">
-        <v>0.2193600323140489</v>
+        <v>0.01457061365455563</v>
       </c>
       <c r="P6">
-        <v>0.2243759033370152</v>
+        <v>0.01673854478414402</v>
       </c>
       <c r="Q6">
-        <v>51.47544720174034</v>
+        <v>3.209459943290667</v>
       </c>
       <c r="R6">
-        <v>308.852683210442</v>
+        <v>19.256759659744</v>
       </c>
       <c r="S6">
-        <v>0.04945406459149518</v>
+        <v>0.005187782128776977</v>
       </c>
       <c r="T6">
-        <v>0.04078201681125707</v>
+        <v>0.004892767372347563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>352.655433</v>
       </c>
       <c r="I7">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J7">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.4608066666666666</v>
+        <v>0.283883</v>
       </c>
       <c r="N7">
-        <v>1.38242</v>
+        <v>0.567766</v>
       </c>
       <c r="O7">
-        <v>0.3929590734668487</v>
+        <v>0.3042626654641195</v>
       </c>
       <c r="P7">
-        <v>0.401944447917342</v>
+        <v>0.2330221807060198</v>
       </c>
       <c r="Q7">
-        <v>54.16865818754</v>
+        <v>33.370960762113</v>
       </c>
       <c r="R7">
-        <v>487.51792368786</v>
+        <v>200.225764572678</v>
       </c>
       <c r="S7">
-        <v>0.05204151622699565</v>
+        <v>0.05394093614525873</v>
       </c>
       <c r="T7">
-        <v>0.06437361642113543</v>
+        <v>0.05087346497097877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>352.655433</v>
       </c>
       <c r="I8">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J8">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2151783333333333</v>
+        <v>0.4608066666666666</v>
       </c>
       <c r="N8">
-        <v>0.645535</v>
+        <v>1.38242</v>
       </c>
       <c r="O8">
-        <v>0.1834962135171816</v>
+        <v>0.4938874982427127</v>
       </c>
       <c r="P8">
-        <v>0.1876920249897436</v>
+        <v>0.5673719860851406</v>
       </c>
       <c r="Q8">
-        <v>25.294602771295</v>
+        <v>54.16865818754</v>
       </c>
       <c r="R8">
-        <v>227.651424941655</v>
+        <v>487.51792368786</v>
       </c>
       <c r="S8">
-        <v>0.02430131232012966</v>
+        <v>0.08755840604043282</v>
       </c>
       <c r="T8">
-        <v>0.03005991122554481</v>
+        <v>0.1238688041291315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>352.655433</v>
       </c>
       <c r="I9">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J9">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07864349999999999</v>
+        <v>0.09609166666666667</v>
       </c>
       <c r="N9">
-        <v>0.157287</v>
+        <v>0.288275</v>
       </c>
       <c r="O9">
-        <v>0.06706430077875779</v>
+        <v>0.1029899875261628</v>
       </c>
       <c r="P9">
-        <v>0.04573185889930338</v>
+        <v>0.1183136523550686</v>
       </c>
       <c r="Q9">
-        <v>9.244685848378499</v>
+        <v>11.295749438675</v>
       </c>
       <c r="R9">
-        <v>55.468115090271</v>
+        <v>101.661744948075</v>
       </c>
       <c r="S9">
-        <v>0.008881657487733972</v>
+        <v>0.01825848837640209</v>
       </c>
       <c r="T9">
-        <v>0.007324209000181658</v>
+        <v>0.02583026830509207</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>352.655433</v>
       </c>
       <c r="I10">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J10">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1607953333333333</v>
+        <v>0.07864350000000001</v>
       </c>
       <c r="N10">
-        <v>0.482386</v>
+        <v>0.157287</v>
       </c>
       <c r="O10">
-        <v>0.1371203799231632</v>
+        <v>0.08428923511244943</v>
       </c>
       <c r="P10">
-        <v>0.1402557648565957</v>
+        <v>0.06455363606962683</v>
       </c>
       <c r="Q10">
-        <v>18.901782633682</v>
+        <v>9.2446858483785</v>
       </c>
       <c r="R10">
-        <v>170.116043703138</v>
+        <v>55.46811509027101</v>
       </c>
       <c r="S10">
-        <v>0.01815953100119755</v>
+        <v>0.0149431421104457</v>
       </c>
       <c r="T10">
-        <v>0.02246273298341014</v>
+        <v>0.01409336713521123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>352.655433</v>
       </c>
       <c r="I11">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J11">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2572343333333333</v>
+        <v>0.01359466666666667</v>
       </c>
       <c r="N11">
-        <v>0.771703</v>
+        <v>0.040784</v>
       </c>
       <c r="O11">
-        <v>0.2193600323140489</v>
+        <v>0.01457061365455563</v>
       </c>
       <c r="P11">
-        <v>0.2243759033370152</v>
+        <v>0.01673854478414402</v>
       </c>
       <c r="Q11">
-        <v>30.238361734711</v>
+        <v>1.598077686608</v>
       </c>
       <c r="R11">
-        <v>272.145255612399</v>
+        <v>14.382699179472</v>
       </c>
       <c r="S11">
-        <v>0.02905093545877608</v>
+        <v>0.002583138287895873</v>
       </c>
       <c r="T11">
-        <v>0.0359350363225644</v>
+        <v>0.003654363585308733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H12">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I12">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J12">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.4608066666666666</v>
+        <v>0.283883</v>
       </c>
       <c r="N12">
-        <v>1.38242</v>
+        <v>0.567766</v>
       </c>
       <c r="O12">
-        <v>0.3929590734668487</v>
+        <v>0.3042626654641195</v>
       </c>
       <c r="P12">
-        <v>0.401944447917342</v>
+        <v>0.2330221807060198</v>
       </c>
       <c r="Q12">
-        <v>38.05788082514889</v>
+        <v>18.61738988140867</v>
       </c>
       <c r="R12">
-        <v>342.52092742634</v>
+        <v>111.704339288452</v>
       </c>
       <c r="S12">
-        <v>0.03656339087577089</v>
+        <v>0.03009321325637686</v>
       </c>
       <c r="T12">
-        <v>0.04522769261807109</v>
+        <v>0.02838189582657157</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H13">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I13">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J13">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2151783333333333</v>
+        <v>0.4608066666666666</v>
       </c>
       <c r="N13">
-        <v>0.645535</v>
+        <v>1.38242</v>
       </c>
       <c r="O13">
-        <v>0.1834962135171816</v>
+        <v>0.4938874982427127</v>
       </c>
       <c r="P13">
-        <v>0.1876920249897436</v>
+        <v>0.5673719860851406</v>
       </c>
       <c r="Q13">
-        <v>17.77151234679944</v>
+        <v>30.22025754724889</v>
       </c>
       <c r="R13">
-        <v>159.943611121195</v>
+        <v>271.98231792524</v>
       </c>
       <c r="S13">
-        <v>0.01707364515052644</v>
+        <v>0.04884812859509081</v>
       </c>
       <c r="T13">
-        <v>0.02111952847485318</v>
+        <v>0.06910540685523449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H14">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I14">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J14">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07864349999999999</v>
+        <v>0.09609166666666667</v>
       </c>
       <c r="N14">
-        <v>0.157287</v>
+        <v>0.288275</v>
       </c>
       <c r="O14">
-        <v>0.06706430077875779</v>
+        <v>0.1029899875261628</v>
       </c>
       <c r="P14">
-        <v>0.04573185889930338</v>
+        <v>0.1183136523550686</v>
       </c>
       <c r="Q14">
-        <v>6.495142469016499</v>
+        <v>6.301807514672223</v>
       </c>
       <c r="R14">
-        <v>38.97085481409899</v>
+        <v>56.71626763205001</v>
       </c>
       <c r="S14">
-        <v>0.006240085568073426</v>
+        <v>0.01018626341542354</v>
       </c>
       <c r="T14">
-        <v>0.005145851542091801</v>
+        <v>0.01441049837328216</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H15">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I15">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J15">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.1607953333333333</v>
+        <v>0.07864350000000001</v>
       </c>
       <c r="N15">
-        <v>0.482386</v>
+        <v>0.157287</v>
       </c>
       <c r="O15">
-        <v>0.1371203799231632</v>
+        <v>0.08428923511244943</v>
       </c>
       <c r="P15">
-        <v>0.1402557648565957</v>
+        <v>0.06455363606962683</v>
       </c>
       <c r="Q15">
-        <v>13.28003710863578</v>
+        <v>5.157535678919</v>
       </c>
       <c r="R15">
-        <v>119.520333977722</v>
+        <v>30.94521407351401</v>
       </c>
       <c r="S15">
-        <v>0.01275854506662202</v>
+        <v>0.008336658471017545</v>
       </c>
       <c r="T15">
-        <v>0.01578189387542198</v>
+        <v>0.007862575865539611</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H16">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I16">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J16">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2572343333333333</v>
+        <v>0.01359466666666667</v>
       </c>
       <c r="N16">
-        <v>0.771703</v>
+        <v>0.040784</v>
       </c>
       <c r="O16">
-        <v>0.2193600323140489</v>
+        <v>0.01457061365455563</v>
       </c>
       <c r="P16">
-        <v>0.2243759033370152</v>
+        <v>0.01673854478414402</v>
       </c>
       <c r="Q16">
-        <v>21.24490444757011</v>
+        <v>0.8915546532942222</v>
       </c>
       <c r="R16">
-        <v>191.204140028131</v>
+        <v>8.023991879648001</v>
       </c>
       <c r="S16">
-        <v>0.02041064107073468</v>
+        <v>0.001441112018505363</v>
       </c>
       <c r="T16">
-        <v>0.02524728091060844</v>
+        <v>0.002038739972789661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H17">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I17">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J17">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.4608066666666666</v>
+        <v>0.283883</v>
       </c>
       <c r="N17">
-        <v>1.38242</v>
+        <v>0.567766</v>
       </c>
       <c r="O17">
-        <v>0.3929590734668487</v>
+        <v>0.3042626654641195</v>
       </c>
       <c r="P17">
-        <v>0.401944447917342</v>
+        <v>0.2330221807060198</v>
       </c>
       <c r="Q17">
-        <v>120.1738834976333</v>
+        <v>39.1236006497805</v>
       </c>
       <c r="R17">
-        <v>721.0433009857999</v>
+        <v>156.494402599122</v>
       </c>
       <c r="S17">
-        <v>0.1154547909688067</v>
+        <v>0.06323952311311243</v>
       </c>
       <c r="T17">
-        <v>0.09520914539832953</v>
+        <v>0.03976217808817929</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H18">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I18">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J18">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2151783333333333</v>
+        <v>0.4608066666666666</v>
       </c>
       <c r="N18">
-        <v>0.645535</v>
+        <v>1.38242</v>
       </c>
       <c r="O18">
-        <v>0.1834962135171816</v>
+        <v>0.4938874982427127</v>
       </c>
       <c r="P18">
-        <v>0.1876920249897436</v>
+        <v>0.5673719860851406</v>
       </c>
       <c r="Q18">
-        <v>56.11641026869166</v>
+        <v>63.50650092969</v>
       </c>
       <c r="R18">
-        <v>336.69846161215</v>
+        <v>381.03900557814</v>
       </c>
       <c r="S18">
-        <v>0.05391278228617107</v>
+        <v>0.1026521272754725</v>
       </c>
       <c r="T18">
-        <v>0.04445887333423319</v>
+        <v>0.09681458599609841</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H19">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I19">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J19">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.07864349999999999</v>
+        <v>0.09609166666666667</v>
       </c>
       <c r="N19">
-        <v>0.157287</v>
+        <v>0.288275</v>
       </c>
       <c r="O19">
-        <v>0.06706430077875779</v>
+        <v>0.1029899875261628</v>
       </c>
       <c r="P19">
-        <v>0.04573185889930338</v>
+        <v>0.1183136523550686</v>
       </c>
       <c r="Q19">
-        <v>20.50945763265749</v>
+        <v>13.2429627432375</v>
       </c>
       <c r="R19">
-        <v>82.03783053062998</v>
+        <v>79.45777645942501</v>
       </c>
       <c r="S19">
-        <v>0.01970407442070141</v>
+        <v>0.02140597068209143</v>
       </c>
       <c r="T19">
-        <v>0.01083256958975352</v>
+        <v>0.02018867260168782</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H20">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I20">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J20">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1607953333333333</v>
+        <v>0.07864350000000001</v>
       </c>
       <c r="N20">
-        <v>0.482386</v>
+        <v>0.157287</v>
       </c>
       <c r="O20">
-        <v>0.1371203799231632</v>
+        <v>0.08428923511244943</v>
       </c>
       <c r="P20">
-        <v>0.1402557648565957</v>
+        <v>0.06455363606962683</v>
       </c>
       <c r="Q20">
-        <v>41.93385437485666</v>
+        <v>10.83832736620725</v>
       </c>
       <c r="R20">
-        <v>251.60312624914</v>
+        <v>43.353309464829</v>
       </c>
       <c r="S20">
-        <v>0.04028715932660028</v>
+        <v>0.01751910975981675</v>
       </c>
       <c r="T20">
-        <v>0.03322257983255349</v>
+        <v>0.01101523110745528</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H21">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I21">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J21">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2572343333333333</v>
+        <v>0.01359466666666667</v>
       </c>
       <c r="N21">
-        <v>0.771703</v>
+        <v>0.040784</v>
       </c>
       <c r="O21">
-        <v>0.2193600323140489</v>
+        <v>0.01457061365455563</v>
       </c>
       <c r="P21">
-        <v>0.2243759033370152</v>
+        <v>0.01673854478414402</v>
       </c>
       <c r="Q21">
-        <v>67.08420481241166</v>
+        <v>1.873561677288</v>
       </c>
       <c r="R21">
-        <v>402.50522887447</v>
+        <v>11.241370063728</v>
       </c>
       <c r="S21">
-        <v>0.06444988393903518</v>
+        <v>0.003028431561177406</v>
       </c>
       <c r="T21">
-        <v>0.05314823507423728</v>
+        <v>0.002856213072195771</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H22">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I22">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J22">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.4608066666666666</v>
+        <v>0.283883</v>
       </c>
       <c r="N22">
-        <v>1.38242</v>
+        <v>0.567766</v>
       </c>
       <c r="O22">
-        <v>0.3929590734668487</v>
+        <v>0.3042626654641195</v>
       </c>
       <c r="P22">
-        <v>0.401944447917342</v>
+        <v>0.2330221807060198</v>
       </c>
       <c r="Q22">
-        <v>56.43667011013778</v>
+        <v>11.29291333771633</v>
       </c>
       <c r="R22">
-        <v>507.93003099124</v>
+        <v>67.75748002629801</v>
       </c>
       <c r="S22">
-        <v>0.05422046588574946</v>
+        <v>0.01825390409302459</v>
       </c>
       <c r="T22">
-        <v>0.06706890433169058</v>
+        <v>0.01721585528214303</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H23">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I23">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J23">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2151783333333333</v>
+        <v>0.4608066666666666</v>
       </c>
       <c r="N23">
-        <v>0.645535</v>
+        <v>1.38242</v>
       </c>
       <c r="O23">
-        <v>0.1834962135171816</v>
+        <v>0.4938874982427127</v>
       </c>
       <c r="P23">
-        <v>0.1876920249897436</v>
+        <v>0.5673719860851406</v>
       </c>
       <c r="Q23">
-        <v>26.35367387591889</v>
+        <v>18.33096646191778</v>
       </c>
       <c r="R23">
-        <v>237.18306488327</v>
+        <v>164.97869815726</v>
       </c>
       <c r="S23">
-        <v>0.02531879489992714</v>
+        <v>0.0296302374526114</v>
       </c>
       <c r="T23">
-        <v>0.03131850317396875</v>
+        <v>0.04191787225571832</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H24">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I24">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J24">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.07864349999999999</v>
+        <v>0.09609166666666667</v>
       </c>
       <c r="N24">
-        <v>0.157287</v>
+        <v>0.288275</v>
       </c>
       <c r="O24">
-        <v>0.06706430077875779</v>
+        <v>0.1029899875261628</v>
       </c>
       <c r="P24">
-        <v>0.04573185889930338</v>
+        <v>0.1183136523550686</v>
       </c>
       <c r="Q24">
-        <v>9.631755759769</v>
+        <v>3.822542611369445</v>
       </c>
       <c r="R24">
-        <v>57.790534558614</v>
+        <v>34.402883502325</v>
       </c>
       <c r="S24">
-        <v>0.009253527601349671</v>
+        <v>0.006178771069321591</v>
       </c>
       <c r="T24">
-        <v>0.0076308696023051</v>
+        <v>0.008741102287667423</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H25">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I25">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J25">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.1607953333333333</v>
+        <v>0.07864350000000001</v>
       </c>
       <c r="N25">
-        <v>0.482386</v>
+        <v>0.157287</v>
       </c>
       <c r="O25">
-        <v>0.1371203799231632</v>
+        <v>0.08428923511244943</v>
       </c>
       <c r="P25">
-        <v>0.1402557648565957</v>
+        <v>0.06455363606962683</v>
       </c>
       <c r="Q25">
-        <v>19.69318987554355</v>
+        <v>3.128451615893501</v>
       </c>
       <c r="R25">
-        <v>177.238708879892</v>
+        <v>18.770709695361</v>
       </c>
       <c r="S25">
-        <v>0.01891986057548584</v>
+        <v>0.005056839988797425</v>
       </c>
       <c r="T25">
-        <v>0.02340323525769802</v>
+        <v>0.00476927154807162</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H26">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I26">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J26">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.2572343333333333</v>
+        <v>0.01359466666666667</v>
       </c>
       <c r="N26">
-        <v>0.771703</v>
+        <v>0.040784</v>
       </c>
       <c r="O26">
-        <v>0.2193600323140489</v>
+        <v>0.01457061365455563</v>
       </c>
       <c r="P26">
-        <v>0.2243759033370152</v>
+        <v>0.01673854478414402</v>
       </c>
       <c r="Q26">
-        <v>31.50442530779623</v>
+        <v>0.5407981193724445</v>
       </c>
       <c r="R26">
-        <v>283.539827770166</v>
+        <v>4.867183074352001</v>
       </c>
       <c r="S26">
-        <v>0.03026728214683708</v>
+        <v>0.0008741479465483019</v>
       </c>
       <c r="T26">
-        <v>0.03743961652716151</v>
+        <v>0.001236656372214823</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H27">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I27">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J27">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M27">
-        <v>0.4608066666666666</v>
+        <v>0.283883</v>
       </c>
       <c r="N27">
-        <v>1.38242</v>
+        <v>0.567766</v>
       </c>
       <c r="O27">
-        <v>0.3929590734668487</v>
+        <v>0.3042626654641195</v>
       </c>
       <c r="P27">
-        <v>0.401944447917342</v>
+        <v>0.2330221807060198</v>
       </c>
       <c r="Q27">
-        <v>47.97123538144888</v>
+        <v>18.809746352634</v>
       </c>
       <c r="R27">
-        <v>431.74111843304</v>
+        <v>112.858478115804</v>
       </c>
       <c r="S27">
-        <v>0.04608745920730505</v>
+        <v>0.03040413892032337</v>
       </c>
       <c r="T27">
-        <v>0.05700864686368988</v>
+        <v>0.02867514001185535</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H28">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I28">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J28">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2151783333333333</v>
+        <v>0.4608066666666666</v>
       </c>
       <c r="N28">
-        <v>0.645535</v>
+        <v>1.38242</v>
       </c>
       <c r="O28">
-        <v>0.1834962135171816</v>
+        <v>0.4938874982427127</v>
       </c>
       <c r="P28">
-        <v>0.1876920249897436</v>
+        <v>0.5673719860851406</v>
       </c>
       <c r="Q28">
-        <v>22.40065351482444</v>
+        <v>30.53249584372</v>
       </c>
       <c r="R28">
-        <v>201.60588163342</v>
+        <v>274.79246259348</v>
       </c>
       <c r="S28">
-        <v>0.02152100517888027</v>
+        <v>0.04935283165509902</v>
       </c>
       <c r="T28">
-        <v>0.02662076420563363</v>
+        <v>0.06981940985404035</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H29">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I29">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J29">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.07864349999999999</v>
+        <v>0.09609166666666667</v>
       </c>
       <c r="N29">
-        <v>0.157287</v>
+        <v>0.288275</v>
       </c>
       <c r="O29">
-        <v>0.06706430077875779</v>
+        <v>0.1029899875261628</v>
       </c>
       <c r="P29">
-        <v>0.04573185889930338</v>
+        <v>0.1183136523550686</v>
       </c>
       <c r="Q29">
-        <v>8.187003623474</v>
+        <v>6.36691833115</v>
       </c>
       <c r="R29">
-        <v>49.122021740844</v>
+        <v>57.30226498035</v>
       </c>
       <c r="S29">
-        <v>0.007865509247919652</v>
+        <v>0.01029150876388773</v>
       </c>
       <c r="T29">
-        <v>0.006486248057210681</v>
+        <v>0.01455938888013302</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H30">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I30">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J30">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M30">
-        <v>0.1607953333333333</v>
+        <v>0.07864350000000001</v>
       </c>
       <c r="N30">
-        <v>0.482386</v>
+        <v>0.157287</v>
       </c>
       <c r="O30">
-        <v>0.1371203799231632</v>
+        <v>0.08428923511244943</v>
       </c>
       <c r="P30">
-        <v>0.1402557648565957</v>
+        <v>0.06455363606962683</v>
       </c>
       <c r="Q30">
-        <v>16.73923435042578</v>
+        <v>5.210823780513</v>
       </c>
       <c r="R30">
-        <v>150.653109153832</v>
+        <v>31.264942683078</v>
       </c>
       <c r="S30">
-        <v>0.01608190354391216</v>
+        <v>0.008422793542341215</v>
       </c>
       <c r="T30">
-        <v>0.01989277725003104</v>
+        <v>0.007943812674666487</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H31">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I31">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J31">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2572343333333333</v>
+        <v>0.01359466666666667</v>
       </c>
       <c r="N31">
-        <v>0.771703</v>
+        <v>0.040784</v>
       </c>
       <c r="O31">
-        <v>0.2193600323140489</v>
+        <v>0.01457061365455563</v>
       </c>
       <c r="P31">
-        <v>0.2243759033370152</v>
+        <v>0.01673854478414402</v>
       </c>
       <c r="Q31">
-        <v>26.77879823611511</v>
+        <v>0.900766272544</v>
       </c>
       <c r="R31">
-        <v>241.009184125036</v>
+        <v>8.106896452896001</v>
       </c>
       <c r="S31">
-        <v>0.02572722510717071</v>
+        <v>0.001456001711651711</v>
       </c>
       <c r="T31">
-        <v>0.03182371769118652</v>
+        <v>0.002059804409287469</v>
       </c>
     </row>
   </sheetData>
